--- a/data/inflation_data_1010.xlsx
+++ b/data/inflation_data_1010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrille/Documents/dev/viz_inflation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15745843-3712-1741-B850-0D14F2767613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EE92B2-EB54-1F4F-A7C8-F695BE185359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{686E2592-E023-E84B-B5BC-0D33F71A2929}"/>
   </bookViews>

--- a/data/inflation_data_1010.xlsx
+++ b/data/inflation_data_1010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrille/Documents/dev/viz_inflation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EE92B2-EB54-1F4F-A7C8-F695BE185359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEDADA6-CC81-5549-942A-418507AAC145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{686E2592-E023-E84B-B5BC-0D33F71A2929}"/>
   </bookViews>
